--- a/Monitor and Control/Car-Reviews .xlsx
+++ b/Monitor and Control/Car-Reviews .xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dell\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ITI\QA\QA project\Car-Bookings\Monitor and Control\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -21,6 +21,9 @@
     <sheet name="Progress" sheetId="5" r:id="rId7"/>
     <sheet name="Option" sheetId="6" state="hidden" r:id="rId8"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId9"/>
+  </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Coding!$A$2:$H$15</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">SRS!$A$1:$H$1</definedName>
@@ -578,7 +581,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -595,6 +598,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFD8D8D8"/>
         <bgColor rgb="FFD8D8D8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -899,7 +908,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1041,8 +1050,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1076,52 +1091,17 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="80">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF0000"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFA8D08D"/>
-          <bgColor rgb="FFA8D08D"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFF7CAAC"/>
-          <bgColor rgb="FFF7CAAC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFD8D8D8"/>
-          <bgColor rgb="FFD8D8D8"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="76">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -3377,6 +3357,19 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Option"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
@@ -8199,42 +8192,42 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="F1:F19 F21:F1000">
-    <cfRule type="cellIs" dxfId="79" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="75" priority="5" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:F19 F21:F1000">
-    <cfRule type="cellIs" dxfId="78" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="74" priority="6" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:F19 F21:F1000">
-    <cfRule type="cellIs" dxfId="77" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="73" priority="7" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:F19 F21:F1000">
-    <cfRule type="cellIs" dxfId="76" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="72" priority="8" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F20">
-    <cfRule type="cellIs" dxfId="75" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="71" priority="1" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F20">
-    <cfRule type="cellIs" dxfId="74" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="70" priority="2" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F20">
-    <cfRule type="cellIs" dxfId="73" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="69" priority="3" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F20">
-    <cfRule type="cellIs" dxfId="72" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="68" priority="4" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11964,62 +11957,62 @@
   </sheetData>
   <autoFilter ref="A1:H1"/>
   <conditionalFormatting sqref="F1:F17 F23:F1000 F19:F21">
-    <cfRule type="cellIs" dxfId="71" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="67" priority="9" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:F17 F23:F1000 F19:F21">
-    <cfRule type="cellIs" dxfId="70" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="66" priority="10" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:F17 F23:F1000 F19:F21">
-    <cfRule type="cellIs" dxfId="69" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="65" priority="11" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:F17 F23:F1000 F19:F21">
-    <cfRule type="cellIs" dxfId="68" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="64" priority="12" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F18">
-    <cfRule type="cellIs" dxfId="67" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="13" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F18">
-    <cfRule type="cellIs" dxfId="66" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="62" priority="14" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F18">
-    <cfRule type="cellIs" dxfId="65" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="15" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F18">
-    <cfRule type="cellIs" dxfId="64" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="16" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F22">
-    <cfRule type="cellIs" dxfId="63" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="1" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F22">
-    <cfRule type="cellIs" dxfId="62" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="2" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F22">
-    <cfRule type="cellIs" dxfId="61" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="3" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F22">
-    <cfRule type="cellIs" dxfId="60" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="4" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -40151,122 +40144,122 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="F1:F7 F16:F997">
-    <cfRule type="cellIs" dxfId="59" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="21" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:F7 F16:F997">
-    <cfRule type="cellIs" dxfId="58" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="22" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:F7 F16:F997">
-    <cfRule type="cellIs" dxfId="57" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="23" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:F7 F16:F997">
-    <cfRule type="cellIs" dxfId="56" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="24" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F8">
-    <cfRule type="cellIs" dxfId="55" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="17" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F8">
-    <cfRule type="cellIs" dxfId="54" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="18" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F8">
-    <cfRule type="cellIs" dxfId="53" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="19" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F8">
-    <cfRule type="cellIs" dxfId="52" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="20" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F9:F10">
-    <cfRule type="cellIs" dxfId="51" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="13" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F9:F10">
-    <cfRule type="cellIs" dxfId="50" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="14" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F9:F10">
-    <cfRule type="cellIs" dxfId="49" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="15" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F9:F10">
-    <cfRule type="cellIs" dxfId="48" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="16" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F11">
-    <cfRule type="cellIs" dxfId="47" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="9" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F11">
-    <cfRule type="cellIs" dxfId="46" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="10" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F11">
-    <cfRule type="cellIs" dxfId="45" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="11" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F11">
-    <cfRule type="cellIs" dxfId="44" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="12" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F12:F13">
-    <cfRule type="cellIs" dxfId="43" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="5" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F12:F13">
-    <cfRule type="cellIs" dxfId="42" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="6" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F12:F13">
-    <cfRule type="cellIs" dxfId="41" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="7" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F12:F13">
-    <cfRule type="cellIs" dxfId="40" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="8" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F14:F15">
-    <cfRule type="cellIs" dxfId="39" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="1" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F14:F15">
-    <cfRule type="cellIs" dxfId="38" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="2" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F14:F15">
-    <cfRule type="cellIs" dxfId="37" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="3" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F14:F15">
-    <cfRule type="cellIs" dxfId="36" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="4" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -41894,62 +41887,62 @@
   </sheetData>
   <autoFilter ref="A2:H15"/>
   <conditionalFormatting sqref="F2:F3 F13:F16 F5:F10">
-    <cfRule type="cellIs" dxfId="35" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="9" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F3 F13:F16 F5:F10">
-    <cfRule type="cellIs" dxfId="34" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="10" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F3 F13:F16 F5:F10">
-    <cfRule type="cellIs" dxfId="33" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="11" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F3 F13:F16 F5:F10">
-    <cfRule type="cellIs" dxfId="32" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="12" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4">
-    <cfRule type="cellIs" dxfId="31" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="5" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4">
-    <cfRule type="cellIs" dxfId="30" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="6" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4">
-    <cfRule type="cellIs" dxfId="29" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="7" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4">
-    <cfRule type="cellIs" dxfId="28" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="8" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F12">
-    <cfRule type="cellIs" dxfId="27" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="1" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F12">
-    <cfRule type="cellIs" dxfId="26" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="2" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F12">
-    <cfRule type="cellIs" dxfId="25" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="3" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F12">
-    <cfRule type="cellIs" dxfId="24" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="4" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -42113,14 +42106,14 @@
       </c>
     </row>
     <row r="5" spans="1:26">
-      <c r="A5" s="52"/>
-      <c r="B5" s="53"/>
-      <c r="C5" s="53"/>
-      <c r="D5" s="53"/>
-      <c r="E5" s="53"/>
-      <c r="F5" s="53"/>
-      <c r="G5" s="53"/>
-      <c r="H5" s="54"/>
+      <c r="A5" s="54"/>
+      <c r="B5" s="55"/>
+      <c r="C5" s="55"/>
+      <c r="D5" s="55"/>
+      <c r="E5" s="55"/>
+      <c r="F5" s="55"/>
+      <c r="G5" s="55"/>
+      <c r="H5" s="56"/>
     </row>
     <row r="6" spans="1:26" ht="90">
       <c r="A6" s="33" t="s">
@@ -42345,22 +42338,22 @@
     <mergeCell ref="A5:H5"/>
   </mergeCells>
   <conditionalFormatting sqref="F1">
-    <cfRule type="cellIs" dxfId="23" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="1" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1">
-    <cfRule type="cellIs" dxfId="22" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="2" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1">
-    <cfRule type="cellIs" dxfId="21" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="3" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1">
-    <cfRule type="cellIs" dxfId="20" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="4" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -42372,8 +42365,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12:I13"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -42413,15 +42406,15 @@
       <c r="I1" s="5"/>
     </row>
     <row r="2" spans="1:9" s="37" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A2" s="57" t="s">
+      <c r="A2" s="59" t="s">
         <v>137</v>
       </c>
-      <c r="B2" s="58"/>
-      <c r="C2" s="58"/>
-      <c r="D2" s="58"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="59"/>
+      <c r="B2" s="60"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="61"/>
       <c r="H2" s="5"/>
       <c r="I2" s="5"/>
     </row>
@@ -42438,7 +42431,7 @@
       <c r="D3" s="50" t="s">
         <v>138</v>
       </c>
-      <c r="E3" s="48" t="s">
+      <c r="E3" s="66" t="s">
         <v>12</v>
       </c>
       <c r="F3" s="48" t="s">
@@ -42461,7 +42454,7 @@
       <c r="D4" s="50" t="s">
         <v>141</v>
       </c>
-      <c r="E4" s="48" t="s">
+      <c r="E4" s="66" t="s">
         <v>12</v>
       </c>
       <c r="F4" s="48" t="s">
@@ -42472,15 +42465,15 @@
       </c>
     </row>
     <row r="5" spans="1:9" s="37" customFormat="1" ht="15.75">
-      <c r="A5" s="55" t="s">
+      <c r="A5" s="57" t="s">
         <v>139</v>
       </c>
-      <c r="B5" s="56"/>
-      <c r="C5" s="56"/>
-      <c r="D5" s="56"/>
-      <c r="E5" s="56"/>
-      <c r="F5" s="56"/>
-      <c r="G5" s="56"/>
+      <c r="B5" s="58"/>
+      <c r="C5" s="58"/>
+      <c r="D5" s="58"/>
+      <c r="E5" s="58"/>
+      <c r="F5" s="58"/>
+      <c r="G5" s="58"/>
     </row>
     <row r="6" spans="1:9" ht="105">
       <c r="A6" s="48" t="s">
@@ -42495,7 +42488,7 @@
       <c r="D6" s="49" t="s">
         <v>140</v>
       </c>
-      <c r="E6" s="48" t="s">
+      <c r="E6" s="66" t="s">
         <v>12</v>
       </c>
       <c r="F6" s="48" t="s">
@@ -42518,7 +42511,7 @@
       <c r="D7" s="50" t="s">
         <v>141</v>
       </c>
-      <c r="E7" s="51" t="s">
+      <c r="E7" s="67" t="s">
         <v>12</v>
       </c>
       <c r="F7" s="48" t="s">
@@ -42529,173 +42522,173 @@
       </c>
     </row>
     <row r="8" spans="1:9" ht="15.75">
-      <c r="A8" s="55" t="s">
+      <c r="A8" s="57" t="s">
         <v>142</v>
       </c>
-      <c r="B8" s="56"/>
-      <c r="C8" s="56"/>
-      <c r="D8" s="56"/>
-      <c r="E8" s="56"/>
-      <c r="F8" s="56"/>
-      <c r="G8" s="56"/>
+      <c r="B8" s="58"/>
+      <c r="C8" s="58"/>
+      <c r="D8" s="58"/>
+      <c r="E8" s="58"/>
+      <c r="F8" s="58"/>
+      <c r="G8" s="58"/>
     </row>
     <row r="9" spans="1:9" ht="30">
-      <c r="A9" s="64" t="s">
+      <c r="A9" s="51" t="s">
         <v>62</v>
       </c>
-      <c r="B9" s="64" t="s">
+      <c r="B9" s="51" t="s">
         <v>33</v>
       </c>
-      <c r="C9" s="65">
+      <c r="C9" s="52">
         <v>44704</v>
       </c>
-      <c r="D9" s="66" t="s">
+      <c r="D9" s="53" t="s">
         <v>143</v>
       </c>
-      <c r="E9" s="64" t="s">
+      <c r="E9" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="F9" s="64" t="s">
+      <c r="F9" s="51" t="s">
         <v>33</v>
       </c>
-      <c r="G9" s="65">
+      <c r="G9" s="52">
         <v>44705</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="75">
-      <c r="A10" s="64" t="s">
+      <c r="A10" s="51" t="s">
         <v>62</v>
       </c>
-      <c r="B10" s="64" t="s">
+      <c r="B10" s="51" t="s">
         <v>33</v>
       </c>
-      <c r="C10" s="65">
+      <c r="C10" s="52">
         <v>44704</v>
       </c>
-      <c r="D10" s="66" t="s">
+      <c r="D10" s="53" t="s">
         <v>144</v>
       </c>
-      <c r="E10" s="64" t="s">
+      <c r="E10" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="F10" s="64" t="s">
+      <c r="F10" s="51" t="s">
         <v>33</v>
       </c>
-      <c r="G10" s="65">
+      <c r="G10" s="52">
         <v>44705</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="45">
-      <c r="A11" s="64" t="s">
+      <c r="A11" s="51" t="s">
         <v>62</v>
       </c>
-      <c r="B11" s="64" t="s">
+      <c r="B11" s="51" t="s">
         <v>33</v>
       </c>
-      <c r="C11" s="65">
+      <c r="C11" s="52">
         <v>44704</v>
       </c>
-      <c r="D11" s="66" t="s">
+      <c r="D11" s="53" t="s">
         <v>145</v>
       </c>
-      <c r="E11" s="64" t="s">
+      <c r="E11" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="F11" s="64" t="s">
+      <c r="F11" s="51" t="s">
         <v>33</v>
       </c>
-      <c r="G11" s="65">
+      <c r="G11" s="52">
         <v>44705</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="75">
-      <c r="A12" s="64" t="s">
+      <c r="A12" s="51" t="s">
         <v>62</v>
       </c>
-      <c r="B12" s="64" t="s">
+      <c r="B12" s="51" t="s">
         <v>33</v>
       </c>
-      <c r="C12" s="65">
+      <c r="C12" s="52">
         <v>44704</v>
       </c>
-      <c r="D12" s="66" t="s">
+      <c r="D12" s="53" t="s">
         <v>146</v>
       </c>
-      <c r="E12" s="64" t="s">
+      <c r="E12" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="F12" s="64" t="s">
+      <c r="F12" s="51" t="s">
         <v>33</v>
       </c>
-      <c r="G12" s="65">
+      <c r="G12" s="52">
         <v>44705</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="15.75">
-      <c r="A13" s="55" t="s">
+      <c r="A13" s="57" t="s">
         <v>147</v>
       </c>
-      <c r="B13" s="56"/>
-      <c r="C13" s="56"/>
-      <c r="D13" s="56"/>
-      <c r="E13" s="56"/>
-      <c r="F13" s="56"/>
-      <c r="G13" s="56"/>
+      <c r="B13" s="58"/>
+      <c r="C13" s="58"/>
+      <c r="D13" s="58"/>
+      <c r="E13" s="58"/>
+      <c r="F13" s="58"/>
+      <c r="G13" s="58"/>
     </row>
     <row r="14" spans="1:9" ht="60">
-      <c r="A14" s="64" t="s">
+      <c r="A14" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="64" t="s">
+      <c r="B14" s="51" t="s">
         <v>62</v>
       </c>
-      <c r="C14" s="65">
+      <c r="C14" s="52">
         <v>44704</v>
       </c>
-      <c r="D14" s="66" t="s">
+      <c r="D14" s="53" t="s">
         <v>148</v>
       </c>
-      <c r="E14" s="64" t="s">
+      <c r="E14" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="F14" s="64" t="s">
+      <c r="F14" s="51" t="s">
         <v>62</v>
       </c>
-      <c r="G14" s="65">
+      <c r="G14" s="52">
         <v>44704</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="15.75">
-      <c r="A15" s="55" t="s">
+      <c r="A15" s="57" t="s">
         <v>149</v>
       </c>
-      <c r="B15" s="56"/>
-      <c r="C15" s="56"/>
-      <c r="D15" s="56"/>
-      <c r="E15" s="56"/>
-      <c r="F15" s="56"/>
-      <c r="G15" s="56"/>
+      <c r="B15" s="58"/>
+      <c r="C15" s="58"/>
+      <c r="D15" s="58"/>
+      <c r="E15" s="58"/>
+      <c r="F15" s="58"/>
+      <c r="G15" s="58"/>
     </row>
     <row r="16" spans="1:9" ht="45">
-      <c r="A16" s="64" t="s">
+      <c r="A16" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="B16" s="64" t="s">
+      <c r="B16" s="51" t="s">
         <v>62</v>
       </c>
-      <c r="C16" s="65">
+      <c r="C16" s="52">
         <v>44704</v>
       </c>
-      <c r="D16" s="66" t="s">
+      <c r="D16" s="53" t="s">
         <v>150</v>
       </c>
-      <c r="E16" s="64" t="s">
+      <c r="E16" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="F16" s="66" t="s">
+      <c r="F16" s="53" t="s">
         <v>151</v>
       </c>
-      <c r="G16" s="65"/>
+      <c r="G16" s="52"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -42706,22 +42699,22 @@
     <mergeCell ref="A15:G15"/>
   </mergeCells>
   <conditionalFormatting sqref="E1">
-    <cfRule type="cellIs" dxfId="19" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="13" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1">
-    <cfRule type="cellIs" dxfId="18" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="14" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1">
-    <cfRule type="cellIs" dxfId="17" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="15" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1">
-    <cfRule type="cellIs" dxfId="16" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="16" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -42834,7 +42827,7 @@
       <c r="X1" s="27"/>
     </row>
     <row r="2" spans="1:24" ht="14.25" customHeight="1">
-      <c r="A2" s="60" t="s">
+      <c r="A2" s="62" t="s">
         <v>93</v>
       </c>
       <c r="B2" s="28" t="s">
@@ -42852,7 +42845,7 @@
       <c r="I2" s="27"/>
       <c r="J2" s="27"/>
       <c r="K2" s="27"/>
-      <c r="L2" s="60" t="s">
+      <c r="L2" s="62" t="s">
         <v>94</v>
       </c>
       <c r="M2" s="28" t="s">
@@ -42874,7 +42867,7 @@
       <c r="X2" s="27"/>
     </row>
     <row r="3" spans="1:24" ht="14.25" customHeight="1">
-      <c r="A3" s="61"/>
+      <c r="A3" s="63"/>
       <c r="B3" s="28" t="s">
         <v>12</v>
       </c>
@@ -42890,7 +42883,7 @@
       <c r="I3" s="27"/>
       <c r="J3" s="27"/>
       <c r="K3" s="27"/>
-      <c r="L3" s="61"/>
+      <c r="L3" s="63"/>
       <c r="M3" s="28" t="s">
         <v>12</v>
       </c>
@@ -42910,7 +42903,7 @@
       <c r="X3" s="27"/>
     </row>
     <row r="4" spans="1:24" ht="14.25" customHeight="1">
-      <c r="A4" s="61"/>
+      <c r="A4" s="63"/>
       <c r="B4" s="28" t="s">
         <v>95</v>
       </c>
@@ -42926,7 +42919,7 @@
       <c r="I4" s="27"/>
       <c r="J4" s="27"/>
       <c r="K4" s="27"/>
-      <c r="L4" s="61"/>
+      <c r="L4" s="63"/>
       <c r="M4" s="28" t="s">
         <v>95</v>
       </c>
@@ -42946,7 +42939,7 @@
       <c r="X4" s="27"/>
     </row>
     <row r="5" spans="1:24" ht="14.25" customHeight="1">
-      <c r="A5" s="61"/>
+      <c r="A5" s="63"/>
       <c r="B5" s="28" t="s">
         <v>96</v>
       </c>
@@ -42962,7 +42955,7 @@
       <c r="I5" s="27"/>
       <c r="J5" s="27"/>
       <c r="K5" s="27"/>
-      <c r="L5" s="61"/>
+      <c r="L5" s="63"/>
       <c r="M5" s="28" t="s">
         <v>96</v>
       </c>
@@ -42982,7 +42975,7 @@
       <c r="X5" s="27"/>
     </row>
     <row r="6" spans="1:24" ht="14.25" customHeight="1">
-      <c r="A6" s="62"/>
+      <c r="A6" s="64"/>
       <c r="B6" s="28" t="s">
         <v>97</v>
       </c>
@@ -42998,7 +42991,7 @@
       <c r="I6" s="27"/>
       <c r="J6" s="27"/>
       <c r="K6" s="27"/>
-      <c r="L6" s="62"/>
+      <c r="L6" s="64"/>
       <c r="M6" s="28" t="s">
         <v>97</v>
       </c>
@@ -43408,7 +43401,7 @@
       <c r="X21" s="27"/>
     </row>
     <row r="22" spans="1:24" ht="14.25" customHeight="1">
-      <c r="A22" s="60" t="s">
+      <c r="A22" s="62" t="s">
         <v>98</v>
       </c>
       <c r="B22" s="28" t="s">
@@ -43426,7 +43419,7 @@
       <c r="I22" s="27"/>
       <c r="J22" s="27"/>
       <c r="K22" s="27"/>
-      <c r="L22" s="63" t="s">
+      <c r="L22" s="65" t="s">
         <v>111</v>
       </c>
       <c r="M22" s="28" t="s">
@@ -43448,7 +43441,7 @@
       <c r="X22" s="27"/>
     </row>
     <row r="23" spans="1:24" ht="14.25" customHeight="1">
-      <c r="A23" s="61"/>
+      <c r="A23" s="63"/>
       <c r="B23" s="28" t="s">
         <v>12</v>
       </c>
@@ -43464,7 +43457,7 @@
       <c r="I23" s="27"/>
       <c r="J23" s="27"/>
       <c r="K23" s="27"/>
-      <c r="L23" s="61"/>
+      <c r="L23" s="63"/>
       <c r="M23" s="28" t="s">
         <v>12</v>
       </c>
@@ -43484,7 +43477,7 @@
       <c r="X23" s="27"/>
     </row>
     <row r="24" spans="1:24" ht="14.25" customHeight="1">
-      <c r="A24" s="61"/>
+      <c r="A24" s="63"/>
       <c r="B24" s="28" t="s">
         <v>95</v>
       </c>
@@ -43500,7 +43493,7 @@
       <c r="I24" s="27"/>
       <c r="J24" s="27"/>
       <c r="K24" s="27"/>
-      <c r="L24" s="61"/>
+      <c r="L24" s="63"/>
       <c r="M24" s="28" t="s">
         <v>95</v>
       </c>
@@ -43520,7 +43513,7 @@
       <c r="X24" s="27"/>
     </row>
     <row r="25" spans="1:24" ht="14.25" customHeight="1">
-      <c r="A25" s="61"/>
+      <c r="A25" s="63"/>
       <c r="B25" s="28" t="s">
         <v>96</v>
       </c>
@@ -43536,7 +43529,7 @@
       <c r="I25" s="27"/>
       <c r="J25" s="27"/>
       <c r="K25" s="27"/>
-      <c r="L25" s="61"/>
+      <c r="L25" s="63"/>
       <c r="M25" s="28" t="s">
         <v>96</v>
       </c>
@@ -43556,7 +43549,7 @@
       <c r="X25" s="27"/>
     </row>
     <row r="26" spans="1:24" ht="14.25" customHeight="1">
-      <c r="A26" s="62"/>
+      <c r="A26" s="64"/>
       <c r="B26" s="28" t="s">
         <v>97</v>
       </c>
@@ -43572,7 +43565,7 @@
       <c r="I26" s="27"/>
       <c r="J26" s="27"/>
       <c r="K26" s="27"/>
-      <c r="L26" s="62"/>
+      <c r="L26" s="64"/>
       <c r="M26" s="28" t="s">
         <v>97</v>
       </c>

--- a/Monitor and Control/Car-Reviews .xlsx
+++ b/Monitor and Control/Car-Reviews .xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Basma\Desktop\Car-Bookings\Monitor and Control\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ITI\QA\QA project\Car-Bookings\Monitor and Control\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -42405,8 +42405,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -42414,7 +42414,7 @@
     <col min="1" max="1" width="22.7109375" customWidth="1"/>
     <col min="2" max="2" width="22" customWidth="1"/>
     <col min="3" max="3" width="27" customWidth="1"/>
-    <col min="4" max="4" width="26.28515625" customWidth="1"/>
+    <col min="4" max="4" width="40.7109375" customWidth="1"/>
     <col min="5" max="5" width="21" customWidth="1"/>
     <col min="6" max="6" width="21.7109375" customWidth="1"/>
     <col min="7" max="7" width="19" customWidth="1"/>

--- a/Monitor and Control/Car-Reviews .xlsx
+++ b/Monitor and Control/Car-Reviews .xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ITI\QA\QA project\Car-Bookings\Monitor and Control\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Basma\Desktop\Car-Bookings\Monitor and Control\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="561" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567" uniqueCount="154">
   <si>
     <t>Version No.</t>
   </si>
@@ -510,6 +510,14 @@
   <si>
     <t xml:space="preserve">
 N/A
+</t>
+  </si>
+  <si>
+    <t>Add Car page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Basma
 </t>
   </si>
 </sst>
@@ -1059,6 +1067,12 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1091,17 +1105,43 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="76">
+  <dxfs count="80">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFA8D08D"/>
+          <bgColor rgb="FFA8D08D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF7CAAC"/>
+          <bgColor rgb="FFF7CAAC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD8D8D8"/>
+          <bgColor rgb="FFD8D8D8"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -8192,42 +8232,42 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="F1:F19 F21:F1000">
-    <cfRule type="cellIs" dxfId="75" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="79" priority="5" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:F19 F21:F1000">
-    <cfRule type="cellIs" dxfId="74" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="78" priority="6" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:F19 F21:F1000">
-    <cfRule type="cellIs" dxfId="73" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="77" priority="7" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:F19 F21:F1000">
-    <cfRule type="cellIs" dxfId="72" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="76" priority="8" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F20">
-    <cfRule type="cellIs" dxfId="71" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="75" priority="1" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F20">
-    <cfRule type="cellIs" dxfId="70" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="74" priority="2" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F20">
-    <cfRule type="cellIs" dxfId="69" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="73" priority="3" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F20">
-    <cfRule type="cellIs" dxfId="68" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="72" priority="4" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11957,62 +11997,62 @@
   </sheetData>
   <autoFilter ref="A1:H1"/>
   <conditionalFormatting sqref="F1:F17 F23:F1000 F19:F21">
-    <cfRule type="cellIs" dxfId="67" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="71" priority="9" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:F17 F23:F1000 F19:F21">
-    <cfRule type="cellIs" dxfId="66" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="70" priority="10" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:F17 F23:F1000 F19:F21">
-    <cfRule type="cellIs" dxfId="65" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="69" priority="11" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:F17 F23:F1000 F19:F21">
-    <cfRule type="cellIs" dxfId="64" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="68" priority="12" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F18">
-    <cfRule type="cellIs" dxfId="63" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="67" priority="13" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F18">
-    <cfRule type="cellIs" dxfId="62" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="66" priority="14" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F18">
-    <cfRule type="cellIs" dxfId="61" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="65" priority="15" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F18">
-    <cfRule type="cellIs" dxfId="60" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="64" priority="16" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F22">
-    <cfRule type="cellIs" dxfId="59" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="1" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F22">
-    <cfRule type="cellIs" dxfId="58" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="62" priority="2" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F22">
-    <cfRule type="cellIs" dxfId="57" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="3" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F22">
-    <cfRule type="cellIs" dxfId="56" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="4" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -40144,122 +40184,122 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="F1:F7 F16:F997">
-    <cfRule type="cellIs" dxfId="55" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="21" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:F7 F16:F997">
-    <cfRule type="cellIs" dxfId="54" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="22" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:F7 F16:F997">
-    <cfRule type="cellIs" dxfId="53" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="23" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:F7 F16:F997">
-    <cfRule type="cellIs" dxfId="52" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="24" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F8">
-    <cfRule type="cellIs" dxfId="51" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="17" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F8">
-    <cfRule type="cellIs" dxfId="50" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="18" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F8">
-    <cfRule type="cellIs" dxfId="49" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="19" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F8">
-    <cfRule type="cellIs" dxfId="48" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="20" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F9:F10">
-    <cfRule type="cellIs" dxfId="47" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="13" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F9:F10">
-    <cfRule type="cellIs" dxfId="46" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="14" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F9:F10">
-    <cfRule type="cellIs" dxfId="45" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="15" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F9:F10">
-    <cfRule type="cellIs" dxfId="44" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="16" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F11">
-    <cfRule type="cellIs" dxfId="43" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="9" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F11">
-    <cfRule type="cellIs" dxfId="42" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="10" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F11">
-    <cfRule type="cellIs" dxfId="41" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="11" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F11">
-    <cfRule type="cellIs" dxfId="40" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="12" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F12:F13">
-    <cfRule type="cellIs" dxfId="39" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="5" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F12:F13">
-    <cfRule type="cellIs" dxfId="38" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="6" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F12:F13">
-    <cfRule type="cellIs" dxfId="37" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="7" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F12:F13">
-    <cfRule type="cellIs" dxfId="36" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="8" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F14:F15">
-    <cfRule type="cellIs" dxfId="35" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="1" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F14:F15">
-    <cfRule type="cellIs" dxfId="34" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="2" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F14:F15">
-    <cfRule type="cellIs" dxfId="33" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="3" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F14:F15">
-    <cfRule type="cellIs" dxfId="32" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="4" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -41887,62 +41927,62 @@
   </sheetData>
   <autoFilter ref="A2:H15"/>
   <conditionalFormatting sqref="F2:F3 F13:F16 F5:F10">
-    <cfRule type="cellIs" dxfId="31" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="9" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F3 F13:F16 F5:F10">
-    <cfRule type="cellIs" dxfId="30" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="10" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F3 F13:F16 F5:F10">
-    <cfRule type="cellIs" dxfId="29" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="11" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F3 F13:F16 F5:F10">
-    <cfRule type="cellIs" dxfId="28" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="12" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4">
-    <cfRule type="cellIs" dxfId="27" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="5" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4">
-    <cfRule type="cellIs" dxfId="26" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="6" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4">
-    <cfRule type="cellIs" dxfId="25" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="7" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4">
-    <cfRule type="cellIs" dxfId="24" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="8" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F12">
-    <cfRule type="cellIs" dxfId="23" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="1" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F12">
-    <cfRule type="cellIs" dxfId="22" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="2" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F12">
-    <cfRule type="cellIs" dxfId="21" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="3" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F12">
-    <cfRule type="cellIs" dxfId="20" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="4" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -42106,14 +42146,14 @@
       </c>
     </row>
     <row r="5" spans="1:26">
-      <c r="A5" s="54"/>
-      <c r="B5" s="55"/>
-      <c r="C5" s="55"/>
-      <c r="D5" s="55"/>
-      <c r="E5" s="55"/>
-      <c r="F5" s="55"/>
-      <c r="G5" s="55"/>
-      <c r="H5" s="56"/>
+      <c r="A5" s="56"/>
+      <c r="B5" s="57"/>
+      <c r="C5" s="57"/>
+      <c r="D5" s="57"/>
+      <c r="E5" s="57"/>
+      <c r="F5" s="57"/>
+      <c r="G5" s="57"/>
+      <c r="H5" s="58"/>
     </row>
     <row r="6" spans="1:26" ht="90">
       <c r="A6" s="33" t="s">
@@ -42338,22 +42378,22 @@
     <mergeCell ref="A5:H5"/>
   </mergeCells>
   <conditionalFormatting sqref="F1">
-    <cfRule type="cellIs" dxfId="19" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="1" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1">
-    <cfRule type="cellIs" dxfId="18" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="2" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1">
-    <cfRule type="cellIs" dxfId="17" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="3" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1">
-    <cfRule type="cellIs" dxfId="16" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="4" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -42363,10 +42403,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I16"/>
+  <dimension ref="A1:I18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -42406,15 +42446,15 @@
       <c r="I1" s="5"/>
     </row>
     <row r="2" spans="1:9" s="37" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A2" s="59" t="s">
+      <c r="A2" s="61" t="s">
         <v>137</v>
       </c>
-      <c r="B2" s="60"/>
-      <c r="C2" s="60"/>
-      <c r="D2" s="60"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="60"/>
-      <c r="G2" s="61"/>
+      <c r="B2" s="62"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="62"/>
+      <c r="G2" s="63"/>
       <c r="H2" s="5"/>
       <c r="I2" s="5"/>
     </row>
@@ -42431,7 +42471,7 @@
       <c r="D3" s="50" t="s">
         <v>138</v>
       </c>
-      <c r="E3" s="66" t="s">
+      <c r="E3" s="54" t="s">
         <v>12</v>
       </c>
       <c r="F3" s="48" t="s">
@@ -42454,7 +42494,7 @@
       <c r="D4" s="50" t="s">
         <v>141</v>
       </c>
-      <c r="E4" s="66" t="s">
+      <c r="E4" s="54" t="s">
         <v>12</v>
       </c>
       <c r="F4" s="48" t="s">
@@ -42465,15 +42505,15 @@
       </c>
     </row>
     <row r="5" spans="1:9" s="37" customFormat="1" ht="15.75">
-      <c r="A5" s="57" t="s">
+      <c r="A5" s="59" t="s">
         <v>139</v>
       </c>
-      <c r="B5" s="58"/>
-      <c r="C5" s="58"/>
-      <c r="D5" s="58"/>
-      <c r="E5" s="58"/>
-      <c r="F5" s="58"/>
-      <c r="G5" s="58"/>
+      <c r="B5" s="60"/>
+      <c r="C5" s="60"/>
+      <c r="D5" s="60"/>
+      <c r="E5" s="60"/>
+      <c r="F5" s="60"/>
+      <c r="G5" s="60"/>
     </row>
     <row r="6" spans="1:9" ht="105">
       <c r="A6" s="48" t="s">
@@ -42488,7 +42528,7 @@
       <c r="D6" s="49" t="s">
         <v>140</v>
       </c>
-      <c r="E6" s="66" t="s">
+      <c r="E6" s="54" t="s">
         <v>12</v>
       </c>
       <c r="F6" s="48" t="s">
@@ -42511,7 +42551,7 @@
       <c r="D7" s="50" t="s">
         <v>141</v>
       </c>
-      <c r="E7" s="67" t="s">
+      <c r="E7" s="55" t="s">
         <v>12</v>
       </c>
       <c r="F7" s="48" t="s">
@@ -42522,15 +42562,15 @@
       </c>
     </row>
     <row r="8" spans="1:9" ht="15.75">
-      <c r="A8" s="57" t="s">
+      <c r="A8" s="59" t="s">
         <v>142</v>
       </c>
-      <c r="B8" s="58"/>
-      <c r="C8" s="58"/>
-      <c r="D8" s="58"/>
-      <c r="E8" s="58"/>
-      <c r="F8" s="58"/>
-      <c r="G8" s="58"/>
+      <c r="B8" s="60"/>
+      <c r="C8" s="60"/>
+      <c r="D8" s="60"/>
+      <c r="E8" s="60"/>
+      <c r="F8" s="60"/>
+      <c r="G8" s="60"/>
     </row>
     <row r="9" spans="1:9" ht="30">
       <c r="A9" s="51" t="s">
@@ -42625,15 +42665,15 @@
       </c>
     </row>
     <row r="13" spans="1:9" ht="15.75">
-      <c r="A13" s="57" t="s">
+      <c r="A13" s="59" t="s">
         <v>147</v>
       </c>
-      <c r="B13" s="58"/>
-      <c r="C13" s="58"/>
-      <c r="D13" s="58"/>
-      <c r="E13" s="58"/>
-      <c r="F13" s="58"/>
-      <c r="G13" s="58"/>
+      <c r="B13" s="60"/>
+      <c r="C13" s="60"/>
+      <c r="D13" s="60"/>
+      <c r="E13" s="60"/>
+      <c r="F13" s="60"/>
+      <c r="G13" s="60"/>
     </row>
     <row r="14" spans="1:9" ht="60">
       <c r="A14" s="51" t="s">
@@ -42659,15 +42699,15 @@
       </c>
     </row>
     <row r="15" spans="1:9" ht="15.75">
-      <c r="A15" s="57" t="s">
+      <c r="A15" s="59" t="s">
         <v>149</v>
       </c>
-      <c r="B15" s="58"/>
-      <c r="C15" s="58"/>
-      <c r="D15" s="58"/>
-      <c r="E15" s="58"/>
-      <c r="F15" s="58"/>
-      <c r="G15" s="58"/>
+      <c r="B15" s="60"/>
+      <c r="C15" s="60"/>
+      <c r="D15" s="60"/>
+      <c r="E15" s="60"/>
+      <c r="F15" s="60"/>
+      <c r="G15" s="60"/>
     </row>
     <row r="16" spans="1:9" ht="45">
       <c r="A16" s="51" t="s">
@@ -42690,8 +42730,41 @@
       </c>
       <c r="G16" s="52"/>
     </row>
+    <row r="17" spans="1:7" s="37" customFormat="1" ht="15.75">
+      <c r="A17" s="59" t="s">
+        <v>152</v>
+      </c>
+      <c r="B17" s="60"/>
+      <c r="C17" s="60"/>
+      <c r="D17" s="60"/>
+      <c r="E17" s="60"/>
+      <c r="F17" s="60"/>
+      <c r="G17" s="60"/>
+    </row>
+    <row r="18" spans="1:7" s="37" customFormat="1" ht="45">
+      <c r="A18" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="53" t="s">
+        <v>153</v>
+      </c>
+      <c r="C18" s="52">
+        <v>44705</v>
+      </c>
+      <c r="D18" s="53" t="s">
+        <v>150</v>
+      </c>
+      <c r="E18" s="51" t="s">
+        <v>12</v>
+      </c>
+      <c r="F18" s="53" t="s">
+        <v>151</v>
+      </c>
+      <c r="G18" s="52"/>
+    </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
+    <mergeCell ref="A17:G17"/>
     <mergeCell ref="A5:G5"/>
     <mergeCell ref="A2:G2"/>
     <mergeCell ref="A8:G8"/>
@@ -42699,26 +42772,40 @@
     <mergeCell ref="A15:G15"/>
   </mergeCells>
   <conditionalFormatting sqref="E1">
-    <cfRule type="cellIs" dxfId="15" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="17" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1">
-    <cfRule type="cellIs" dxfId="14" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="18" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1">
-    <cfRule type="cellIs" dxfId="13" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="19" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1">
+    <cfRule type="cellIs" dxfId="16" priority="20" operator="equal">
+      <formula>"Open"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E9:E12">
+    <cfRule type="cellIs" dxfId="15" priority="13" operator="equal">
+      <formula>"Need Approval"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="14" priority="14" operator="equal">
+      <formula>"In progress"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="15" operator="equal">
+      <formula>"Closed"</formula>
+    </cfRule>
     <cfRule type="cellIs" dxfId="12" priority="16" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E9:E12">
+  <conditionalFormatting sqref="E14">
     <cfRule type="cellIs" dxfId="11" priority="9" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
@@ -42732,7 +42819,7 @@
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E14">
+  <conditionalFormatting sqref="E16">
     <cfRule type="cellIs" dxfId="7" priority="5" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
@@ -42746,7 +42833,7 @@
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E16">
+  <conditionalFormatting sqref="E18">
     <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
@@ -42764,7 +42851,7 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="2">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
         <x14:dataValidation type="list" allowBlank="1">
           <x14:formula1>
             <xm:f>Option!$B$1:$B$4</xm:f>
@@ -42775,7 +42862,7 @@
           <x14:formula1>
             <xm:f>'[Car-Reviews.xlsx]Option'!#REF!</xm:f>
           </x14:formula1>
-          <xm:sqref>E9:E12 E14 E16</xm:sqref>
+          <xm:sqref>E9:E12 E14 E16 E18</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -42827,7 +42914,7 @@
       <c r="X1" s="27"/>
     </row>
     <row r="2" spans="1:24" ht="14.25" customHeight="1">
-      <c r="A2" s="62" t="s">
+      <c r="A2" s="64" t="s">
         <v>93</v>
       </c>
       <c r="B2" s="28" t="s">
@@ -42845,7 +42932,7 @@
       <c r="I2" s="27"/>
       <c r="J2" s="27"/>
       <c r="K2" s="27"/>
-      <c r="L2" s="62" t="s">
+      <c r="L2" s="64" t="s">
         <v>94</v>
       </c>
       <c r="M2" s="28" t="s">
@@ -42867,7 +42954,7 @@
       <c r="X2" s="27"/>
     </row>
     <row r="3" spans="1:24" ht="14.25" customHeight="1">
-      <c r="A3" s="63"/>
+      <c r="A3" s="65"/>
       <c r="B3" s="28" t="s">
         <v>12</v>
       </c>
@@ -42883,7 +42970,7 @@
       <c r="I3" s="27"/>
       <c r="J3" s="27"/>
       <c r="K3" s="27"/>
-      <c r="L3" s="63"/>
+      <c r="L3" s="65"/>
       <c r="M3" s="28" t="s">
         <v>12</v>
       </c>
@@ -42903,7 +42990,7 @@
       <c r="X3" s="27"/>
     </row>
     <row r="4" spans="1:24" ht="14.25" customHeight="1">
-      <c r="A4" s="63"/>
+      <c r="A4" s="65"/>
       <c r="B4" s="28" t="s">
         <v>95</v>
       </c>
@@ -42919,7 +43006,7 @@
       <c r="I4" s="27"/>
       <c r="J4" s="27"/>
       <c r="K4" s="27"/>
-      <c r="L4" s="63"/>
+      <c r="L4" s="65"/>
       <c r="M4" s="28" t="s">
         <v>95</v>
       </c>
@@ -42939,7 +43026,7 @@
       <c r="X4" s="27"/>
     </row>
     <row r="5" spans="1:24" ht="14.25" customHeight="1">
-      <c r="A5" s="63"/>
+      <c r="A5" s="65"/>
       <c r="B5" s="28" t="s">
         <v>96</v>
       </c>
@@ -42955,7 +43042,7 @@
       <c r="I5" s="27"/>
       <c r="J5" s="27"/>
       <c r="K5" s="27"/>
-      <c r="L5" s="63"/>
+      <c r="L5" s="65"/>
       <c r="M5" s="28" t="s">
         <v>96</v>
       </c>
@@ -42975,7 +43062,7 @@
       <c r="X5" s="27"/>
     </row>
     <row r="6" spans="1:24" ht="14.25" customHeight="1">
-      <c r="A6" s="64"/>
+      <c r="A6" s="66"/>
       <c r="B6" s="28" t="s">
         <v>97</v>
       </c>
@@ -42991,7 +43078,7 @@
       <c r="I6" s="27"/>
       <c r="J6" s="27"/>
       <c r="K6" s="27"/>
-      <c r="L6" s="64"/>
+      <c r="L6" s="66"/>
       <c r="M6" s="28" t="s">
         <v>97</v>
       </c>
@@ -43401,7 +43488,7 @@
       <c r="X21" s="27"/>
     </row>
     <row r="22" spans="1:24" ht="14.25" customHeight="1">
-      <c r="A22" s="62" t="s">
+      <c r="A22" s="64" t="s">
         <v>98</v>
       </c>
       <c r="B22" s="28" t="s">
@@ -43419,7 +43506,7 @@
       <c r="I22" s="27"/>
       <c r="J22" s="27"/>
       <c r="K22" s="27"/>
-      <c r="L22" s="65" t="s">
+      <c r="L22" s="67" t="s">
         <v>111</v>
       </c>
       <c r="M22" s="28" t="s">
@@ -43441,7 +43528,7 @@
       <c r="X22" s="27"/>
     </row>
     <row r="23" spans="1:24" ht="14.25" customHeight="1">
-      <c r="A23" s="63"/>
+      <c r="A23" s="65"/>
       <c r="B23" s="28" t="s">
         <v>12</v>
       </c>
@@ -43457,7 +43544,7 @@
       <c r="I23" s="27"/>
       <c r="J23" s="27"/>
       <c r="K23" s="27"/>
-      <c r="L23" s="63"/>
+      <c r="L23" s="65"/>
       <c r="M23" s="28" t="s">
         <v>12</v>
       </c>
@@ -43477,7 +43564,7 @@
       <c r="X23" s="27"/>
     </row>
     <row r="24" spans="1:24" ht="14.25" customHeight="1">
-      <c r="A24" s="63"/>
+      <c r="A24" s="65"/>
       <c r="B24" s="28" t="s">
         <v>95</v>
       </c>
@@ -43493,7 +43580,7 @@
       <c r="I24" s="27"/>
       <c r="J24" s="27"/>
       <c r="K24" s="27"/>
-      <c r="L24" s="63"/>
+      <c r="L24" s="65"/>
       <c r="M24" s="28" t="s">
         <v>95</v>
       </c>
@@ -43513,7 +43600,7 @@
       <c r="X24" s="27"/>
     </row>
     <row r="25" spans="1:24" ht="14.25" customHeight="1">
-      <c r="A25" s="63"/>
+      <c r="A25" s="65"/>
       <c r="B25" s="28" t="s">
         <v>96</v>
       </c>
@@ -43529,7 +43616,7 @@
       <c r="I25" s="27"/>
       <c r="J25" s="27"/>
       <c r="K25" s="27"/>
-      <c r="L25" s="63"/>
+      <c r="L25" s="65"/>
       <c r="M25" s="28" t="s">
         <v>96</v>
       </c>
@@ -43549,7 +43636,7 @@
       <c r="X25" s="27"/>
     </row>
     <row r="26" spans="1:24" ht="14.25" customHeight="1">
-      <c r="A26" s="64"/>
+      <c r="A26" s="66"/>
       <c r="B26" s="28" t="s">
         <v>97</v>
       </c>
@@ -43565,7 +43652,7 @@
       <c r="I26" s="27"/>
       <c r="J26" s="27"/>
       <c r="K26" s="27"/>
-      <c r="L26" s="64"/>
+      <c r="L26" s="66"/>
       <c r="M26" s="28" t="s">
         <v>97</v>
       </c>

--- a/Monitor and Control/Car-Reviews .xlsx
+++ b/Monitor and Control/Car-Reviews .xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ITI\QA\QA project\Car-Bookings\Monitor and Control\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ITI\QA\QA-Project\Car-Bookings\Monitor and Control\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7656" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="PMP" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="592" uniqueCount="160">
   <si>
     <t>Version No.</t>
   </si>
@@ -520,6 +520,24 @@
 Basma
 </t>
   </si>
+  <si>
+    <t>Wireframe-Review-v1.0</t>
+  </si>
+  <si>
+    <t>In update car page there is no home page button as mentioned in SRS</t>
+  </si>
+  <si>
+    <t>Need to mention in the pre-condition field that the admin navigate to update car page and start your steps from updateCar page</t>
+  </si>
+  <si>
+    <t>we are testing blackbox No need to check the result in database</t>
+  </si>
+  <si>
+    <t>Bug title &amp; description need to be more descriptive</t>
+  </si>
+  <si>
+    <t>Sevirity &amp; Priority need to migrate after status column (Optional)</t>
+  </si>
 </sst>
 </file>
 
@@ -589,7 +607,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -606,12 +624,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFD8D8D8"/>
         <bgColor rgb="FFD8D8D8"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -916,7 +928,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1067,12 +1079,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1109,7 +1115,167 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="80">
+  <dxfs count="100">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFA8D08D"/>
+          <bgColor rgb="FFA8D08D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF7CAAC"/>
+          <bgColor rgb="FFF7CAAC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD8D8D8"/>
+          <bgColor rgb="FFD8D8D8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFA8D08D"/>
+          <bgColor rgb="FFA8D08D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF7CAAC"/>
+          <bgColor rgb="FFF7CAAC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD8D8D8"/>
+          <bgColor rgb="FFD8D8D8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFA8D08D"/>
+          <bgColor rgb="FFA8D08D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF7CAAC"/>
+          <bgColor rgb="FFF7CAAC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD8D8D8"/>
+          <bgColor rgb="FFD8D8D8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFA8D08D"/>
+          <bgColor rgb="FFA8D08D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF7CAAC"/>
+          <bgColor rgb="FFF7CAAC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD8D8D8"/>
+          <bgColor rgb="FFD8D8D8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFA8D08D"/>
+          <bgColor rgb="FFA8D08D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF7CAAC"/>
+          <bgColor rgb="FFF7CAAC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD8D8D8"/>
+          <bgColor rgb="FFD8D8D8"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -1796,6 +1962,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1878,7 +2045,9 @@
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="1"/>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+              </c:ext>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -1942,6 +2111,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
@@ -2004,6 +2174,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2086,7 +2257,9 @@
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="1"/>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+              </c:ext>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -2150,6 +2323,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
@@ -2212,6 +2386,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2294,7 +2469,9 @@
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="1"/>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+              </c:ext>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -2324,7 +2501,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>10</c:v>
@@ -2358,6 +2535,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
@@ -2402,6 +2580,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2527,6 +2706,7 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="0"/>
+              <c:layout/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -2534,7 +2714,9 @@
               <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000001-FE0D-4969-ABDA-8D4958BE83CA}"/>
                 </c:ext>
@@ -2542,6 +2724,7 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="1"/>
+              <c:layout/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -2549,7 +2732,9 @@
               <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000002-FE0D-4969-ABDA-8D4958BE83CA}"/>
                 </c:ext>
@@ -2662,6 +2847,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3615,16 +3801,16 @@
       <selection pane="bottomLeft" sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="28.85546875" customWidth="1"/>
-    <col min="2" max="2" width="21.28515625" customWidth="1"/>
-    <col min="3" max="3" width="20.42578125" customWidth="1"/>
-    <col min="4" max="4" width="24.28515625" customWidth="1"/>
-    <col min="5" max="5" width="72.5703125" customWidth="1"/>
-    <col min="6" max="7" width="13.85546875" customWidth="1"/>
+    <col min="1" max="1" width="28.88671875" customWidth="1"/>
+    <col min="2" max="2" width="21.33203125" customWidth="1"/>
+    <col min="3" max="3" width="20.44140625" customWidth="1"/>
+    <col min="4" max="4" width="24.33203125" customWidth="1"/>
+    <col min="5" max="5" width="72.5546875" customWidth="1"/>
+    <col min="6" max="7" width="13.88671875" customWidth="1"/>
     <col min="8" max="8" width="17" customWidth="1"/>
-    <col min="9" max="10" width="8.7109375" customWidth="1"/>
+    <col min="9" max="10" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="25.5" customHeight="1">
@@ -8232,42 +8418,42 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="F1:F19 F21:F1000">
-    <cfRule type="cellIs" dxfId="79" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="99" priority="5" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:F19 F21:F1000">
-    <cfRule type="cellIs" dxfId="78" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="98" priority="6" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:F19 F21:F1000">
-    <cfRule type="cellIs" dxfId="77" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="97" priority="7" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:F19 F21:F1000">
-    <cfRule type="cellIs" dxfId="76" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="96" priority="8" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F20">
-    <cfRule type="cellIs" dxfId="75" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="95" priority="1" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F20">
-    <cfRule type="cellIs" dxfId="74" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="94" priority="2" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F20">
-    <cfRule type="cellIs" dxfId="73" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="93" priority="3" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F20">
-    <cfRule type="cellIs" dxfId="72" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="92" priority="4" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8297,17 +8483,17 @@
       <selection pane="bottomLeft" activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="23" customWidth="1"/>
-    <col min="2" max="2" width="13.85546875" customWidth="1"/>
-    <col min="3" max="3" width="22.7109375" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" customWidth="1"/>
-    <col min="5" max="5" width="70.7109375" customWidth="1"/>
-    <col min="6" max="6" width="13.85546875" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" customWidth="1"/>
-    <col min="9" max="27" width="8.7109375" customWidth="1"/>
+    <col min="2" max="2" width="13.88671875" customWidth="1"/>
+    <col min="3" max="3" width="22.6640625" customWidth="1"/>
+    <col min="4" max="4" width="14.6640625" customWidth="1"/>
+    <col min="5" max="5" width="70.6640625" customWidth="1"/>
+    <col min="6" max="6" width="13.88671875" customWidth="1"/>
+    <col min="7" max="7" width="14.88671875" customWidth="1"/>
+    <col min="8" max="8" width="14.5546875" customWidth="1"/>
+    <col min="9" max="27" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="25.5" customHeight="1">
@@ -11997,62 +12183,62 @@
   </sheetData>
   <autoFilter ref="A1:H1"/>
   <conditionalFormatting sqref="F1:F17 F23:F1000 F19:F21">
-    <cfRule type="cellIs" dxfId="71" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="91" priority="9" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:F17 F23:F1000 F19:F21">
-    <cfRule type="cellIs" dxfId="70" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="90" priority="10" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:F17 F23:F1000 F19:F21">
-    <cfRule type="cellIs" dxfId="69" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="89" priority="11" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:F17 F23:F1000 F19:F21">
-    <cfRule type="cellIs" dxfId="68" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="88" priority="12" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F18">
-    <cfRule type="cellIs" dxfId="67" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="87" priority="13" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F18">
-    <cfRule type="cellIs" dxfId="66" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="86" priority="14" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F18">
-    <cfRule type="cellIs" dxfId="65" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="85" priority="15" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F18">
-    <cfRule type="cellIs" dxfId="64" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="84" priority="16" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F22">
-    <cfRule type="cellIs" dxfId="63" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="83" priority="1" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F22">
-    <cfRule type="cellIs" dxfId="62" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="82" priority="2" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F22">
-    <cfRule type="cellIs" dxfId="61" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="81" priority="3" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F22">
-    <cfRule type="cellIs" dxfId="60" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="80" priority="4" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12080,18 +12266,18 @@
   </sheetPr>
   <dimension ref="A1:Z997"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="43.5703125" customWidth="1"/>
-    <col min="2" max="2" width="17.42578125" customWidth="1"/>
-    <col min="3" max="3" width="24.85546875" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" customWidth="1"/>
-    <col min="5" max="5" width="55.140625" customWidth="1"/>
-    <col min="6" max="25" width="14.42578125" customWidth="1"/>
+    <col min="1" max="1" width="43.5546875" customWidth="1"/>
+    <col min="2" max="2" width="17.44140625" customWidth="1"/>
+    <col min="3" max="3" width="24.88671875" customWidth="1"/>
+    <col min="4" max="4" width="14.44140625" customWidth="1"/>
+    <col min="5" max="5" width="55.109375" customWidth="1"/>
+    <col min="6" max="25" width="14.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="25.5" customHeight="1">
@@ -12182,7 +12368,7 @@
       <c r="Y2" s="5"/>
       <c r="Z2" s="5"/>
     </row>
-    <row r="3" spans="1:26">
+    <row r="3" spans="1:26" ht="14.4">
       <c r="A3" s="5"/>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
@@ -12430,7 +12616,7 @@
       <c r="Y8" s="5"/>
       <c r="Z8" s="5"/>
     </row>
-    <row r="9" spans="1:26" ht="15.75" thickBot="1">
+    <row r="9" spans="1:26" thickBot="1">
       <c r="A9" s="5"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
@@ -12686,35 +12872,29 @@
         <v>44695</v>
       </c>
     </row>
-    <row r="16" spans="1:26">
-      <c r="A16" s="5"/>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="23"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
-      <c r="J16" s="5"/>
-      <c r="K16" s="5"/>
-      <c r="L16" s="5"/>
-      <c r="M16" s="5"/>
-      <c r="N16" s="5"/>
-      <c r="O16" s="5"/>
-      <c r="P16" s="5"/>
-      <c r="Q16" s="5"/>
-      <c r="R16" s="5"/>
-      <c r="S16" s="5"/>
-      <c r="T16" s="5"/>
-      <c r="U16" s="5"/>
-      <c r="V16" s="5"/>
-      <c r="W16" s="5"/>
-      <c r="X16" s="5"/>
-      <c r="Y16" s="5"/>
-      <c r="Z16" s="5"/>
-    </row>
-    <row r="17" spans="1:26">
+    <row r="16" spans="1:26" s="37" customFormat="1" ht="57.6" customHeight="1">
+      <c r="A16" s="31" t="s">
+        <v>154</v>
+      </c>
+      <c r="B16" s="38" t="s">
+        <v>77</v>
+      </c>
+      <c r="C16" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="D16" s="26">
+        <v>44705</v>
+      </c>
+      <c r="E16" s="32" t="s">
+        <v>155</v>
+      </c>
+      <c r="F16" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="G16" s="38"/>
+      <c r="H16" s="26"/>
+    </row>
+    <row r="17" spans="1:26" ht="14.4">
       <c r="A17" s="5"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
@@ -40183,123 +40363,143 @@
       <c r="Z997" s="5"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="F1:F7 F16:F997">
-    <cfRule type="cellIs" dxfId="59" priority="21" operator="equal">
+  <conditionalFormatting sqref="F1:F7 F17:F997">
+    <cfRule type="cellIs" dxfId="79" priority="25" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1:F7 F16:F997">
-    <cfRule type="cellIs" dxfId="58" priority="22" operator="equal">
+  <conditionalFormatting sqref="F1:F7 F17:F997">
+    <cfRule type="cellIs" dxfId="78" priority="26" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1:F7 F16:F997">
-    <cfRule type="cellIs" dxfId="57" priority="23" operator="equal">
+  <conditionalFormatting sqref="F1:F7 F17:F997">
+    <cfRule type="cellIs" dxfId="77" priority="27" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1:F7 F16:F997">
-    <cfRule type="cellIs" dxfId="56" priority="24" operator="equal">
+  <conditionalFormatting sqref="F1:F7 F17:F997">
+    <cfRule type="cellIs" dxfId="76" priority="28" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F8">
-    <cfRule type="cellIs" dxfId="55" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="75" priority="21" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F8">
-    <cfRule type="cellIs" dxfId="54" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="74" priority="22" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F8">
-    <cfRule type="cellIs" dxfId="53" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="73" priority="23" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F8">
-    <cfRule type="cellIs" dxfId="52" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="72" priority="24" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F9:F10">
-    <cfRule type="cellIs" dxfId="51" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="71" priority="17" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F9:F10">
-    <cfRule type="cellIs" dxfId="50" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="70" priority="18" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F9:F10">
-    <cfRule type="cellIs" dxfId="49" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="69" priority="19" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F9:F10">
-    <cfRule type="cellIs" dxfId="48" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="68" priority="20" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F11">
-    <cfRule type="cellIs" dxfId="47" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="67" priority="13" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F11">
-    <cfRule type="cellIs" dxfId="46" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="66" priority="14" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F11">
-    <cfRule type="cellIs" dxfId="45" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="65" priority="15" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F11">
-    <cfRule type="cellIs" dxfId="44" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="64" priority="16" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F12:F13">
-    <cfRule type="cellIs" dxfId="43" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="9" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F12:F13">
-    <cfRule type="cellIs" dxfId="42" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="62" priority="10" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F12:F13">
-    <cfRule type="cellIs" dxfId="41" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="11" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F12:F13">
-    <cfRule type="cellIs" dxfId="40" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="12" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F14:F15">
-    <cfRule type="cellIs" dxfId="39" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="5" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F14:F15">
-    <cfRule type="cellIs" dxfId="38" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="6" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F14:F15">
-    <cfRule type="cellIs" dxfId="37" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="7" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F14:F15">
-    <cfRule type="cellIs" dxfId="36" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="8" operator="equal">
+      <formula>"Open"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F16">
+    <cfRule type="cellIs" dxfId="55" priority="1" operator="equal">
+      <formula>"Need Approval"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F16">
+    <cfRule type="cellIs" dxfId="54" priority="2" operator="equal">
+      <formula>"In progress"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F16">
+    <cfRule type="cellIs" dxfId="53" priority="3" operator="equal">
+      <formula>"Closed"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F16">
+    <cfRule type="cellIs" dxfId="52" priority="4" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -40324,24 +40524,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z1005"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="39.7109375" customWidth="1"/>
-    <col min="2" max="2" width="22.5703125" customWidth="1"/>
-    <col min="3" max="3" width="19.5703125" customWidth="1"/>
-    <col min="4" max="4" width="18.28515625" customWidth="1"/>
-    <col min="5" max="5" width="53.42578125" customWidth="1"/>
-    <col min="6" max="6" width="27.140625" customWidth="1"/>
+    <col min="1" max="1" width="39.6640625" customWidth="1"/>
+    <col min="2" max="2" width="22.5546875" customWidth="1"/>
+    <col min="3" max="3" width="19.5546875" customWidth="1"/>
+    <col min="4" max="4" width="18.33203125" customWidth="1"/>
+    <col min="5" max="5" width="53.44140625" customWidth="1"/>
+    <col min="6" max="6" width="27.109375" customWidth="1"/>
     <col min="7" max="7" width="23" customWidth="1"/>
-    <col min="8" max="9" width="27.140625" customWidth="1"/>
-    <col min="10" max="26" width="8.7109375" customWidth="1"/>
+    <col min="8" max="9" width="27.109375" customWidth="1"/>
+    <col min="10" max="26" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="20.45" customHeight="1" thickBot="1">
+    <row r="1" spans="1:26" ht="20.399999999999999" customHeight="1" thickBot="1">
       <c r="A1" s="29" t="s">
         <v>101</v>
       </c>
@@ -41927,62 +42127,62 @@
   </sheetData>
   <autoFilter ref="A2:H15"/>
   <conditionalFormatting sqref="F2:F3 F13:F16 F5:F10">
-    <cfRule type="cellIs" dxfId="35" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="9" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F3 F13:F16 F5:F10">
-    <cfRule type="cellIs" dxfId="34" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="10" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F3 F13:F16 F5:F10">
-    <cfRule type="cellIs" dxfId="33" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="11" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F3 F13:F16 F5:F10">
-    <cfRule type="cellIs" dxfId="32" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="12" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4">
-    <cfRule type="cellIs" dxfId="31" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="5" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4">
-    <cfRule type="cellIs" dxfId="30" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="6" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4">
-    <cfRule type="cellIs" dxfId="29" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="7" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4">
-    <cfRule type="cellIs" dxfId="28" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="8" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F12">
-    <cfRule type="cellIs" dxfId="27" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="1" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F12">
-    <cfRule type="cellIs" dxfId="26" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="2" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F12">
-    <cfRule type="cellIs" dxfId="25" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="3" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F12">
-    <cfRule type="cellIs" dxfId="24" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="4" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -42011,16 +42211,16 @@
       <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="23.7109375" customWidth="1"/>
-    <col min="2" max="2" width="17.85546875" customWidth="1"/>
-    <col min="3" max="3" width="25.5703125" customWidth="1"/>
-    <col min="4" max="4" width="19.140625" customWidth="1"/>
-    <col min="5" max="5" width="23.42578125" customWidth="1"/>
-    <col min="6" max="6" width="15.7109375" customWidth="1"/>
-    <col min="7" max="7" width="22.85546875" customWidth="1"/>
-    <col min="8" max="8" width="13.5703125" customWidth="1"/>
+    <col min="1" max="1" width="23.6640625" customWidth="1"/>
+    <col min="2" max="2" width="17.88671875" customWidth="1"/>
+    <col min="3" max="3" width="25.5546875" customWidth="1"/>
+    <col min="4" max="4" width="19.109375" customWidth="1"/>
+    <col min="5" max="5" width="23.44140625" customWidth="1"/>
+    <col min="6" max="6" width="15.6640625" customWidth="1"/>
+    <col min="7" max="7" width="22.88671875" customWidth="1"/>
+    <col min="8" max="8" width="13.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="25.5" customHeight="1">
@@ -42067,7 +42267,7 @@
       <c r="Y1" s="5"/>
       <c r="Z1" s="5"/>
     </row>
-    <row r="2" spans="1:26" ht="75">
+    <row r="2" spans="1:26" ht="72">
       <c r="A2" s="33" t="s">
         <v>117</v>
       </c>
@@ -42093,7 +42293,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="120">
+    <row r="3" spans="1:26" ht="100.8">
       <c r="A3" s="33" t="s">
         <v>117</v>
       </c>
@@ -42119,7 +42319,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="4" spans="1:26" ht="75">
+    <row r="4" spans="1:26" ht="57.6">
       <c r="A4" s="33" t="s">
         <v>117</v>
       </c>
@@ -42146,16 +42346,16 @@
       </c>
     </row>
     <row r="5" spans="1:26">
-      <c r="A5" s="56"/>
-      <c r="B5" s="57"/>
-      <c r="C5" s="57"/>
-      <c r="D5" s="57"/>
-      <c r="E5" s="57"/>
-      <c r="F5" s="57"/>
-      <c r="G5" s="57"/>
-      <c r="H5" s="58"/>
-    </row>
-    <row r="6" spans="1:26" ht="90">
+      <c r="A5" s="54"/>
+      <c r="B5" s="55"/>
+      <c r="C5" s="55"/>
+      <c r="D5" s="55"/>
+      <c r="E5" s="55"/>
+      <c r="F5" s="55"/>
+      <c r="G5" s="55"/>
+      <c r="H5" s="56"/>
+    </row>
+    <row r="6" spans="1:26" ht="86.4">
       <c r="A6" s="33" t="s">
         <v>124</v>
       </c>
@@ -42181,7 +42381,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="7" spans="1:26" ht="135">
+    <row r="7" spans="1:26" ht="115.2">
       <c r="A7" s="33" t="s">
         <v>124</v>
       </c>
@@ -42207,7 +42407,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="8" spans="1:26" ht="135">
+    <row r="8" spans="1:26" ht="129.6">
       <c r="A8" s="36" t="s">
         <v>124</v>
       </c>
@@ -42378,22 +42578,22 @@
     <mergeCell ref="A5:H5"/>
   </mergeCells>
   <conditionalFormatting sqref="F1">
-    <cfRule type="cellIs" dxfId="23" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="1" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1">
-    <cfRule type="cellIs" dxfId="22" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="2" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1">
-    <cfRule type="cellIs" dxfId="21" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="3" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1">
-    <cfRule type="cellIs" dxfId="20" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="4" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -42403,20 +42603,20 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I18"/>
+  <dimension ref="A1:I22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="22.7109375" customWidth="1"/>
+    <col min="1" max="1" width="22.6640625" customWidth="1"/>
     <col min="2" max="2" width="22" customWidth="1"/>
     <col min="3" max="3" width="27" customWidth="1"/>
-    <col min="4" max="4" width="40.7109375" customWidth="1"/>
+    <col min="4" max="4" width="40.6640625" customWidth="1"/>
     <col min="5" max="5" width="21" customWidth="1"/>
-    <col min="6" max="6" width="21.7109375" customWidth="1"/>
+    <col min="6" max="6" width="21.6640625" customWidth="1"/>
     <col min="7" max="7" width="19" customWidth="1"/>
   </cols>
   <sheetData>
@@ -42446,19 +42646,19 @@
       <c r="I1" s="5"/>
     </row>
     <row r="2" spans="1:9" s="37" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A2" s="61" t="s">
+      <c r="A2" s="59" t="s">
         <v>137</v>
       </c>
-      <c r="B2" s="62"/>
-      <c r="C2" s="62"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="62"/>
-      <c r="F2" s="62"/>
-      <c r="G2" s="63"/>
+      <c r="B2" s="60"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="61"/>
       <c r="H2" s="5"/>
       <c r="I2" s="5"/>
     </row>
-    <row r="3" spans="1:9" ht="90">
+    <row r="3" spans="1:9" ht="43.2">
       <c r="A3" s="48" t="s">
         <v>40</v>
       </c>
@@ -42471,7 +42671,7 @@
       <c r="D3" s="50" t="s">
         <v>138</v>
       </c>
-      <c r="E3" s="54" t="s">
+      <c r="E3" s="51" t="s">
         <v>12</v>
       </c>
       <c r="F3" s="48" t="s">
@@ -42481,7 +42681,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="4" spans="1:9" s="37" customFormat="1" ht="60">
+    <row r="4" spans="1:9" s="37" customFormat="1" ht="43.2">
       <c r="A4" s="48" t="s">
         <v>40</v>
       </c>
@@ -42494,7 +42694,7 @@
       <c r="D4" s="50" t="s">
         <v>141</v>
       </c>
-      <c r="E4" s="54" t="s">
+      <c r="E4" s="51" t="s">
         <v>12</v>
       </c>
       <c r="F4" s="48" t="s">
@@ -42504,18 +42704,18 @@
         <v>136</v>
       </c>
     </row>
-    <row r="5" spans="1:9" s="37" customFormat="1" ht="15.75">
-      <c r="A5" s="59" t="s">
+    <row r="5" spans="1:9" s="37" customFormat="1" ht="15.6">
+      <c r="A5" s="57" t="s">
         <v>139</v>
       </c>
-      <c r="B5" s="60"/>
-      <c r="C5" s="60"/>
-      <c r="D5" s="60"/>
-      <c r="E5" s="60"/>
-      <c r="F5" s="60"/>
-      <c r="G5" s="60"/>
-    </row>
-    <row r="6" spans="1:9" ht="105">
+      <c r="B5" s="58"/>
+      <c r="C5" s="58"/>
+      <c r="D5" s="58"/>
+      <c r="E5" s="58"/>
+      <c r="F5" s="58"/>
+      <c r="G5" s="58"/>
+    </row>
+    <row r="6" spans="1:9" ht="57.6">
       <c r="A6" s="48" t="s">
         <v>40</v>
       </c>
@@ -42528,7 +42728,7 @@
       <c r="D6" s="49" t="s">
         <v>140</v>
       </c>
-      <c r="E6" s="54" t="s">
+      <c r="E6" s="51" t="s">
         <v>12</v>
       </c>
       <c r="F6" s="48" t="s">
@@ -42538,7 +42738,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="60">
+    <row r="7" spans="1:9" ht="43.2">
       <c r="A7" s="48" t="s">
         <v>40</v>
       </c>
@@ -42551,7 +42751,7 @@
       <c r="D7" s="50" t="s">
         <v>141</v>
       </c>
-      <c r="E7" s="55" t="s">
+      <c r="E7" s="51" t="s">
         <v>12</v>
       </c>
       <c r="F7" s="48" t="s">
@@ -42561,18 +42761,18 @@
         <v>136</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15.75">
-      <c r="A8" s="59" t="s">
+    <row r="8" spans="1:9" ht="15.6">
+      <c r="A8" s="57" t="s">
         <v>142</v>
       </c>
-      <c r="B8" s="60"/>
-      <c r="C8" s="60"/>
-      <c r="D8" s="60"/>
-      <c r="E8" s="60"/>
-      <c r="F8" s="60"/>
-      <c r="G8" s="60"/>
-    </row>
-    <row r="9" spans="1:9" ht="30">
+      <c r="B8" s="58"/>
+      <c r="C8" s="58"/>
+      <c r="D8" s="58"/>
+      <c r="E8" s="58"/>
+      <c r="F8" s="58"/>
+      <c r="G8" s="58"/>
+    </row>
+    <row r="9" spans="1:9" ht="28.8">
       <c r="A9" s="51" t="s">
         <v>62</v>
       </c>
@@ -42595,7 +42795,7 @@
         <v>44705</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="75">
+    <row r="10" spans="1:9" ht="43.2">
       <c r="A10" s="51" t="s">
         <v>62</v>
       </c>
@@ -42618,7 +42818,7 @@
         <v>44705</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="45">
+    <row r="11" spans="1:9" ht="28.8">
       <c r="A11" s="51" t="s">
         <v>62</v>
       </c>
@@ -42641,7 +42841,7 @@
         <v>44705</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="75">
+    <row r="12" spans="1:9" ht="43.2">
       <c r="A12" s="51" t="s">
         <v>62</v>
       </c>
@@ -42664,134 +42864,282 @@
         <v>44705</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15.75">
-      <c r="A13" s="59" t="s">
-        <v>147</v>
-      </c>
-      <c r="B13" s="60"/>
-      <c r="C13" s="60"/>
-      <c r="D13" s="60"/>
-      <c r="E13" s="60"/>
-      <c r="F13" s="60"/>
-      <c r="G13" s="60"/>
-    </row>
-    <row r="14" spans="1:9" ht="60">
+    <row r="13" spans="1:9" s="37" customFormat="1" ht="43.2">
+      <c r="A13" s="51" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13" s="51" t="s">
+        <v>66</v>
+      </c>
+      <c r="C13" s="52">
+        <v>44705</v>
+      </c>
+      <c r="D13" s="53" t="s">
+        <v>156</v>
+      </c>
+      <c r="E13" s="51" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" s="51" t="s">
+        <v>33</v>
+      </c>
+      <c r="G13" s="52">
+        <v>44705</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" s="37" customFormat="1" ht="28.8">
       <c r="A14" s="51" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="B14" s="51" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C14" s="52">
-        <v>44704</v>
+        <v>44705</v>
       </c>
       <c r="D14" s="53" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="E14" s="51" t="s">
         <v>12</v>
       </c>
       <c r="F14" s="51" t="s">
-        <v>62</v>
+        <v>33</v>
       </c>
       <c r="G14" s="52">
-        <v>44704</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="15.75">
-      <c r="A15" s="59" t="s">
-        <v>149</v>
-      </c>
-      <c r="B15" s="60"/>
-      <c r="C15" s="60"/>
-      <c r="D15" s="60"/>
-      <c r="E15" s="60"/>
-      <c r="F15" s="60"/>
-      <c r="G15" s="60"/>
-    </row>
-    <row r="16" spans="1:9" ht="45">
+        <v>44705</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" s="37" customFormat="1" ht="28.8">
+      <c r="A15" s="51" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15" s="51" t="s">
+        <v>66</v>
+      </c>
+      <c r="C15" s="52">
+        <v>44705</v>
+      </c>
+      <c r="D15" s="53" t="s">
+        <v>158</v>
+      </c>
+      <c r="E15" s="51" t="s">
+        <v>12</v>
+      </c>
+      <c r="F15" s="51" t="s">
+        <v>33</v>
+      </c>
+      <c r="G15" s="52">
+        <v>44705</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" s="37" customFormat="1" ht="28.8">
       <c r="A16" s="51" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="B16" s="51" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C16" s="52">
-        <v>44704</v>
+        <v>44705</v>
       </c>
       <c r="D16" s="53" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="E16" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="F16" s="53" t="s">
-        <v>151</v>
-      </c>
-      <c r="G16" s="52"/>
-    </row>
-    <row r="17" spans="1:7" s="37" customFormat="1" ht="15.75">
-      <c r="A17" s="59" t="s">
-        <v>152</v>
-      </c>
-      <c r="B17" s="60"/>
-      <c r="C17" s="60"/>
-      <c r="D17" s="60"/>
-      <c r="E17" s="60"/>
-      <c r="F17" s="60"/>
-      <c r="G17" s="60"/>
-    </row>
-    <row r="18" spans="1:7" s="37" customFormat="1" ht="45">
+      <c r="F16" s="51" t="s">
+        <v>33</v>
+      </c>
+      <c r="G16" s="52">
+        <v>44705</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="15.6">
+      <c r="A17" s="57" t="s">
+        <v>147</v>
+      </c>
+      <c r="B17" s="58"/>
+      <c r="C17" s="58"/>
+      <c r="D17" s="58"/>
+      <c r="E17" s="58"/>
+      <c r="F17" s="58"/>
+      <c r="G17" s="58"/>
+    </row>
+    <row r="18" spans="1:7" ht="28.8">
       <c r="A18" s="51" t="s">
-        <v>16</v>
-      </c>
-      <c r="B18" s="53" t="s">
-        <v>153</v>
+        <v>10</v>
+      </c>
+      <c r="B18" s="51" t="s">
+        <v>62</v>
       </c>
       <c r="C18" s="52">
-        <v>44705</v>
+        <v>44704</v>
       </c>
       <c r="D18" s="53" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E18" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="F18" s="53" t="s">
+      <c r="F18" s="51" t="s">
+        <v>62</v>
+      </c>
+      <c r="G18" s="52">
+        <v>44704</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="15.6">
+      <c r="A19" s="57" t="s">
+        <v>149</v>
+      </c>
+      <c r="B19" s="58"/>
+      <c r="C19" s="58"/>
+      <c r="D19" s="58"/>
+      <c r="E19" s="58"/>
+      <c r="F19" s="58"/>
+      <c r="G19" s="58"/>
+    </row>
+    <row r="20" spans="1:7" ht="43.2">
+      <c r="A20" s="51" t="s">
+        <v>10</v>
+      </c>
+      <c r="B20" s="51" t="s">
+        <v>62</v>
+      </c>
+      <c r="C20" s="52">
+        <v>44704</v>
+      </c>
+      <c r="D20" s="53" t="s">
+        <v>150</v>
+      </c>
+      <c r="E20" s="51" t="s">
+        <v>12</v>
+      </c>
+      <c r="F20" s="53" t="s">
         <v>151</v>
       </c>
-      <c r="G18" s="52"/>
+      <c r="G20" s="52"/>
+    </row>
+    <row r="21" spans="1:7" s="37" customFormat="1" ht="15.6">
+      <c r="A21" s="57" t="s">
+        <v>152</v>
+      </c>
+      <c r="B21" s="58"/>
+      <c r="C21" s="58"/>
+      <c r="D21" s="58"/>
+      <c r="E21" s="58"/>
+      <c r="F21" s="58"/>
+      <c r="G21" s="58"/>
+    </row>
+    <row r="22" spans="1:7" s="37" customFormat="1" ht="43.2">
+      <c r="A22" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="B22" s="53" t="s">
+        <v>153</v>
+      </c>
+      <c r="C22" s="52">
+        <v>44705</v>
+      </c>
+      <c r="D22" s="53" t="s">
+        <v>150</v>
+      </c>
+      <c r="E22" s="51" t="s">
+        <v>12</v>
+      </c>
+      <c r="F22" s="53" t="s">
+        <v>151</v>
+      </c>
+      <c r="G22" s="52"/>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="A17:G17"/>
+    <mergeCell ref="A21:G21"/>
     <mergeCell ref="A5:G5"/>
     <mergeCell ref="A2:G2"/>
     <mergeCell ref="A8:G8"/>
-    <mergeCell ref="A13:G13"/>
-    <mergeCell ref="A15:G15"/>
+    <mergeCell ref="A17:G17"/>
+    <mergeCell ref="A19:G19"/>
   </mergeCells>
   <conditionalFormatting sqref="E1">
-    <cfRule type="cellIs" dxfId="19" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="33" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1">
-    <cfRule type="cellIs" dxfId="18" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="34" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1">
-    <cfRule type="cellIs" dxfId="17" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="35" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1">
+    <cfRule type="cellIs" dxfId="32" priority="36" operator="equal">
+      <formula>"Open"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E9:E16">
+    <cfRule type="cellIs" dxfId="31" priority="29" operator="equal">
+      <formula>"Need Approval"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="30" priority="30" operator="equal">
+      <formula>"In progress"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="29" priority="31" operator="equal">
+      <formula>"Closed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="28" priority="32" operator="equal">
+      <formula>"Open"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E18">
+    <cfRule type="cellIs" dxfId="27" priority="25" operator="equal">
+      <formula>"Need Approval"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="26" priority="26" operator="equal">
+      <formula>"In progress"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="25" priority="27" operator="equal">
+      <formula>"Closed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="24" priority="28" operator="equal">
+      <formula>"Open"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E20">
+    <cfRule type="cellIs" dxfId="23" priority="21" operator="equal">
+      <formula>"Need Approval"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="22" priority="22" operator="equal">
+      <formula>"In progress"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="21" priority="23" operator="equal">
+      <formula>"Closed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="20" priority="24" operator="equal">
+      <formula>"Open"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E22">
+    <cfRule type="cellIs" dxfId="19" priority="17" operator="equal">
+      <formula>"Need Approval"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="18" priority="18" operator="equal">
+      <formula>"In progress"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="17" priority="19" operator="equal">
+      <formula>"Closed"</formula>
+    </cfRule>
     <cfRule type="cellIs" dxfId="16" priority="20" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E9:E12">
+  <conditionalFormatting sqref="E7">
     <cfRule type="cellIs" dxfId="15" priority="13" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
@@ -42805,7 +43153,7 @@
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E14">
+  <conditionalFormatting sqref="E6">
     <cfRule type="cellIs" dxfId="11" priority="9" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
@@ -42819,7 +43167,7 @@
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E16">
+  <conditionalFormatting sqref="E4">
     <cfRule type="cellIs" dxfId="7" priority="5" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
@@ -42833,7 +43181,7 @@
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E18">
+  <conditionalFormatting sqref="E3">
     <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
@@ -42862,7 +43210,7 @@
           <x14:formula1>
             <xm:f>'[Car-Reviews.xlsx]Option'!#REF!</xm:f>
           </x14:formula1>
-          <xm:sqref>E9:E12 E14 E16 E18</xm:sqref>
+          <xm:sqref>E22 E18 E20 E9:E16</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -42878,13 +43226,13 @@
       <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" customWidth="1"/>
-    <col min="2" max="2" width="12.5703125" customWidth="1"/>
-    <col min="3" max="12" width="8.7109375" customWidth="1"/>
-    <col min="13" max="13" width="13.140625" customWidth="1"/>
-    <col min="14" max="26" width="8.7109375" customWidth="1"/>
+    <col min="1" max="1" width="11.5546875" customWidth="1"/>
+    <col min="2" max="2" width="12.5546875" customWidth="1"/>
+    <col min="3" max="12" width="8.6640625" customWidth="1"/>
+    <col min="13" max="13" width="13.109375" customWidth="1"/>
+    <col min="14" max="26" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="14.25" customHeight="1">
@@ -42914,7 +43262,7 @@
       <c r="X1" s="27"/>
     </row>
     <row r="2" spans="1:24" ht="14.25" customHeight="1">
-      <c r="A2" s="64" t="s">
+      <c r="A2" s="62" t="s">
         <v>93</v>
       </c>
       <c r="B2" s="28" t="s">
@@ -42932,7 +43280,7 @@
       <c r="I2" s="27"/>
       <c r="J2" s="27"/>
       <c r="K2" s="27"/>
-      <c r="L2" s="64" t="s">
+      <c r="L2" s="62" t="s">
         <v>94</v>
       </c>
       <c r="M2" s="28" t="s">
@@ -42954,7 +43302,7 @@
       <c r="X2" s="27"/>
     </row>
     <row r="3" spans="1:24" ht="14.25" customHeight="1">
-      <c r="A3" s="65"/>
+      <c r="A3" s="63"/>
       <c r="B3" s="28" t="s">
         <v>12</v>
       </c>
@@ -42970,7 +43318,7 @@
       <c r="I3" s="27"/>
       <c r="J3" s="27"/>
       <c r="K3" s="27"/>
-      <c r="L3" s="65"/>
+      <c r="L3" s="63"/>
       <c r="M3" s="28" t="s">
         <v>12</v>
       </c>
@@ -42990,7 +43338,7 @@
       <c r="X3" s="27"/>
     </row>
     <row r="4" spans="1:24" ht="14.25" customHeight="1">
-      <c r="A4" s="65"/>
+      <c r="A4" s="63"/>
       <c r="B4" s="28" t="s">
         <v>95</v>
       </c>
@@ -43006,7 +43354,7 @@
       <c r="I4" s="27"/>
       <c r="J4" s="27"/>
       <c r="K4" s="27"/>
-      <c r="L4" s="65"/>
+      <c r="L4" s="63"/>
       <c r="M4" s="28" t="s">
         <v>95</v>
       </c>
@@ -43026,7 +43374,7 @@
       <c r="X4" s="27"/>
     </row>
     <row r="5" spans="1:24" ht="14.25" customHeight="1">
-      <c r="A5" s="65"/>
+      <c r="A5" s="63"/>
       <c r="B5" s="28" t="s">
         <v>96</v>
       </c>
@@ -43042,7 +43390,7 @@
       <c r="I5" s="27"/>
       <c r="J5" s="27"/>
       <c r="K5" s="27"/>
-      <c r="L5" s="65"/>
+      <c r="L5" s="63"/>
       <c r="M5" s="28" t="s">
         <v>96</v>
       </c>
@@ -43062,7 +43410,7 @@
       <c r="X5" s="27"/>
     </row>
     <row r="6" spans="1:24" ht="14.25" customHeight="1">
-      <c r="A6" s="66"/>
+      <c r="A6" s="64"/>
       <c r="B6" s="28" t="s">
         <v>97</v>
       </c>
@@ -43078,7 +43426,7 @@
       <c r="I6" s="27"/>
       <c r="J6" s="27"/>
       <c r="K6" s="27"/>
-      <c r="L6" s="66"/>
+      <c r="L6" s="64"/>
       <c r="M6" s="28" t="s">
         <v>97</v>
       </c>
@@ -43488,7 +43836,7 @@
       <c r="X21" s="27"/>
     </row>
     <row r="22" spans="1:24" ht="14.25" customHeight="1">
-      <c r="A22" s="64" t="s">
+      <c r="A22" s="62" t="s">
         <v>98</v>
       </c>
       <c r="B22" s="28" t="s">
@@ -43496,7 +43844,7 @@
       </c>
       <c r="C22" s="28">
         <f>COUNTIFS(Design!F:F,"Open")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D22" s="27"/>
       <c r="E22" s="27"/>
@@ -43506,7 +43854,7 @@
       <c r="I22" s="27"/>
       <c r="J22" s="27"/>
       <c r="K22" s="27"/>
-      <c r="L22" s="67" t="s">
+      <c r="L22" s="65" t="s">
         <v>111</v>
       </c>
       <c r="M22" s="28" t="s">
@@ -43528,7 +43876,7 @@
       <c r="X22" s="27"/>
     </row>
     <row r="23" spans="1:24" ht="14.25" customHeight="1">
-      <c r="A23" s="65"/>
+      <c r="A23" s="63"/>
       <c r="B23" s="28" t="s">
         <v>12</v>
       </c>
@@ -43544,7 +43892,7 @@
       <c r="I23" s="27"/>
       <c r="J23" s="27"/>
       <c r="K23" s="27"/>
-      <c r="L23" s="65"/>
+      <c r="L23" s="63"/>
       <c r="M23" s="28" t="s">
         <v>12</v>
       </c>
@@ -43564,7 +43912,7 @@
       <c r="X23" s="27"/>
     </row>
     <row r="24" spans="1:24" ht="14.25" customHeight="1">
-      <c r="A24" s="65"/>
+      <c r="A24" s="63"/>
       <c r="B24" s="28" t="s">
         <v>95</v>
       </c>
@@ -43580,7 +43928,7 @@
       <c r="I24" s="27"/>
       <c r="J24" s="27"/>
       <c r="K24" s="27"/>
-      <c r="L24" s="65"/>
+      <c r="L24" s="63"/>
       <c r="M24" s="28" t="s">
         <v>95</v>
       </c>
@@ -43600,7 +43948,7 @@
       <c r="X24" s="27"/>
     </row>
     <row r="25" spans="1:24" ht="14.25" customHeight="1">
-      <c r="A25" s="65"/>
+      <c r="A25" s="63"/>
       <c r="B25" s="28" t="s">
         <v>96</v>
       </c>
@@ -43616,7 +43964,7 @@
       <c r="I25" s="27"/>
       <c r="J25" s="27"/>
       <c r="K25" s="27"/>
-      <c r="L25" s="65"/>
+      <c r="L25" s="63"/>
       <c r="M25" s="28" t="s">
         <v>96</v>
       </c>
@@ -43636,13 +43984,13 @@
       <c r="X25" s="27"/>
     </row>
     <row r="26" spans="1:24" ht="14.25" customHeight="1">
-      <c r="A26" s="66"/>
+      <c r="A26" s="64"/>
       <c r="B26" s="28" t="s">
         <v>97</v>
       </c>
       <c r="C26" s="28">
         <f>SUM(C22:C25)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D26" s="27"/>
       <c r="E26" s="27"/>
@@ -43652,7 +44000,7 @@
       <c r="I26" s="27"/>
       <c r="J26" s="27"/>
       <c r="K26" s="27"/>
-      <c r="L26" s="66"/>
+      <c r="L26" s="64"/>
       <c r="M26" s="28" t="s">
         <v>97</v>
       </c>
@@ -47164,11 +47512,11 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="8.7109375" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" customWidth="1"/>
-    <col min="3" max="26" width="8.7109375" customWidth="1"/>
+    <col min="1" max="1" width="8.6640625" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" customWidth="1"/>
+    <col min="3" max="26" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:2" ht="14.25" customHeight="1">
